--- a/data/trans_camb/P1410-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1410-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.709769046924752</v>
+        <v>-2.849148278532589</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.963499006947976</v>
+        <v>-4.786660174677426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1530651209743426</v>
+        <v>-0.2320092875857015</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.8339028243112457</v>
+        <v>-0.8724486385699344</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.1862090284478258</v>
+        <v>0.1066058811908849</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.356375262911539</v>
+        <v>2.204023832482133</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.057459314716972</v>
+        <v>-0.8883781735502363</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.53302688918561</v>
+        <v>-1.395651728400819</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.872228697993416</v>
+        <v>1.899490741275428</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.491756593153697</v>
+        <v>2.593308162460487</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3284554333153227</v>
+        <v>0.2577043591232213</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.907733497929256</v>
+        <v>6.042192189414484</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.463034035194412</v>
+        <v>3.609618150436927</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.132187006658804</v>
+        <v>5.303641811679195</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.554373201792027</v>
+        <v>6.729235231695855</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.529762235907384</v>
+        <v>2.373358323487336</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.308776332719508</v>
+        <v>2.29589590466311</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.518822331516055</v>
+        <v>5.445097462913537</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2381707521074838</v>
+        <v>-0.2638493048798595</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4273594056677539</v>
+        <v>-0.4186991345128389</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01901537894597803</v>
+        <v>-0.03630852676067516</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.103457820230833</v>
+        <v>-0.09555830345021617</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01848270921433016</v>
+        <v>0.005896968849444695</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2474685514581868</v>
+        <v>0.2621101857161924</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1042731162895358</v>
+        <v>-0.09707579650482297</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1576288370403771</v>
+        <v>-0.1480456671593091</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1910187707927389</v>
+        <v>0.1881003830751431</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2916627436916586</v>
+        <v>0.2998272044527829</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.04420767882230307</v>
+        <v>0.05264085626453566</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6753142116059236</v>
+        <v>0.6681996708071155</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5135106834872257</v>
+        <v>0.530964811405383</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7560212387741738</v>
+        <v>0.7959727095271665</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9519063857952029</v>
+        <v>1.002612230591238</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.304913122428918</v>
+        <v>0.2943202355221869</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2854749888556977</v>
+        <v>0.275481307972217</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6909361335720727</v>
+        <v>0.6763597757419799</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.025034065662324</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7832114802916534</v>
+        <v>0.7832114802916528</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.06907618560041892</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.056643021048113</v>
+        <v>-1.00339137166232</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04501480869738449</v>
+        <v>0.07592550880669466</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9139566946599283</v>
+        <v>1.00550391411575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.732318691115446</v>
+        <v>-0.7698617825224284</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1603298539099763</v>
+        <v>0.2086857037440559</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06937374975562477</v>
+        <v>-0.03693345944608851</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.679589606724638</v>
+        <v>-0.6207861614393376</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2940404609022866</v>
+        <v>0.3956496017413864</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7416940158532728</v>
+        <v>0.7481309777285234</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6446513648242639</v>
+        <v>0.6674456130966739</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.002488903291221</v>
+        <v>2.082046543656653</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.056595869337498</v>
+        <v>3.060364041551773</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9223570070494979</v>
+        <v>0.8979132091618837</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.019490071227434</v>
+        <v>1.94166923716783</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.579131470950212</v>
+        <v>1.565605147783536</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5027058332250254</v>
+        <v>0.5118831984403349</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.708934733976658</v>
+        <v>1.71785879280218</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.056760908460757</v>
+        <v>2.00502082355923</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.7918252939441766</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6050205367581345</v>
+        <v>0.6050205367581339</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.04302894653247923</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4418184439935248</v>
+        <v>-0.4491728200060098</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.00775052312337544</v>
+        <v>0.005769095292921893</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.349416186577915</v>
+        <v>0.3963785490167582</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4356563591533729</v>
+        <v>-0.4570026029391949</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03794478377154596</v>
+        <v>0.114724722689505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005187480832288142</v>
+        <v>-0.03655749309433055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3474738920894264</v>
+        <v>-0.3338995536045551</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1430305328268491</v>
+        <v>0.1956194230659671</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.372963874052288</v>
+        <v>0.3753942873949934</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4846105412157722</v>
+        <v>0.4992816309038919</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.373285752694447</v>
+        <v>1.48634795886547</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.140017160990506</v>
+        <v>2.247682805469613</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.028206738485522</v>
+        <v>0.9687939577093061</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.132856921432418</v>
+        <v>2.236752130027812</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.836947394517316</v>
+        <v>1.784741626179861</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3955012427429446</v>
+        <v>0.3978528060666587</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.285989085066616</v>
+        <v>1.322881767393098</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.53756706661796</v>
+        <v>1.620997982789674</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.9421758387191198</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.708494347596095</v>
+        <v>1.708494347596094</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.005439347844804054</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.831179873016757</v>
+        <v>-3.767062215320046</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.789503304423718</v>
+        <v>-2.939680258606885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.43146941199794</v>
+        <v>-0.1789685792229845</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9007196780695768</v>
+        <v>-0.9241595593645806</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1587533065902039</v>
+        <v>0.2809787210676968</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8072539183098143</v>
+        <v>0.8639080097476665</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.194382516772471</v>
+        <v>-2.159849770289463</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.016275834503182</v>
+        <v>-1.028197407785967</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5851820598620808</v>
+        <v>0.4488318909110357</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.6294364622897375</v>
+        <v>-0.6641946300177538</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9395142207104407</v>
+        <v>0.8682205311554185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.589214771035885</v>
+        <v>3.835479255363191</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9315289909405661</v>
+        <v>0.8694239383917427</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.835551916246169</v>
+        <v>2.848782793313062</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.063469967057016</v>
+        <v>2.934022943649671</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.2597443565339777</v>
+        <v>-0.3156307449972743</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.343842945710906</v>
+        <v>1.305447830231272</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.820353415762556</v>
+        <v>2.795161839026379</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3507072598664479</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.6359549316795506</v>
+        <v>0.6359549316795501</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.01174923139671732</v>
@@ -1208,29 +1208,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.9459500673845109</v>
+        <v>-1</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7638984866967542</v>
+        <v>-0.7902844652489815</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1266980560055461</v>
+        <v>-0.08425778497733485</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="n">
-        <v>-0.2620199249365257</v>
+        <v>-0.328175408443433</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05005845827250185</v>
+        <v>0.102761898749134</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.9139860947570313</v>
+        <v>-0.9056085399015686</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4683725290349661</v>
+        <v>-0.4798957640464686</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1779284614475722</v>
+        <v>0.1511249802601116</v>
       </c>
     </row>
     <row r="21">
@@ -1241,25 +1241,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1597783596973525</v>
+        <v>-0.06402993272542272</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.759630312216713</v>
+        <v>0.579739538938602</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.16530234578375</v>
+        <v>2.598511802427494</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>-0.09393424116707949</v>
+        <v>-0.135992290935926</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.2809197269707</v>
+        <v>1.263728251529341</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.656258935360583</v>
+        <v>2.434727455169146</v>
       </c>
     </row>
     <row r="22">
@@ -1309,31 +1309,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.618077406046741</v>
+        <v>-1.610046917557071</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.772460908979365</v>
+        <v>-1.820352823825782</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1914306019063136</v>
+        <v>-0.1707655440467792</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.5011834701452244</v>
+        <v>-0.5150620082574948</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.2016718889965789</v>
+        <v>-0.158599850570262</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.2371051204846562</v>
+        <v>-0.3206001812422136</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.8607181912949569</v>
+        <v>-0.8178531868380526</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.6887635311894619</v>
+        <v>-0.7435270103063503</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04481306960635136</v>
+        <v>0.119275129279027</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.295182246038989</v>
+        <v>0.381917007894812</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.137678287838246</v>
+        <v>0.1031300986104337</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.859708946371877</v>
+        <v>1.916206503094902</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.376152522240184</v>
+        <v>1.397313702123833</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.780448857086151</v>
+        <v>1.832513790856687</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.513203350330236</v>
+        <v>1.393692699280838</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.537298773336688</v>
+        <v>0.5644774063085155</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6889206341714132</v>
+        <v>0.6977209607971884</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.394266861762106</v>
+        <v>1.390258450614356</v>
       </c>
     </row>
     <row r="25">
@@ -1414,31 +1414,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3162760972464945</v>
+        <v>-0.3185390435239266</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.349892164586326</v>
+        <v>-0.3522130687929195</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04044511040510467</v>
+        <v>-0.03264024171312153</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1191166072557764</v>
+        <v>-0.1225937613405347</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05416272729544593</v>
+        <v>-0.04583967626049022</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.05644050259101305</v>
+        <v>-0.07635002947909898</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1921990500098462</v>
+        <v>-0.18325603018142</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1505364470740357</v>
+        <v>-0.1683324122731915</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.01025340503790381</v>
+        <v>0.02296845804714497</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.06997643997652031</v>
+        <v>0.09563760726488695</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.03290657704688451</v>
+        <v>0.03155272665031419</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4571866127556748</v>
+        <v>0.4679507783277719</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4113191869733557</v>
+        <v>0.4169146569873047</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5340188079063148</v>
+        <v>0.5441070513495964</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4801575335781471</v>
+        <v>0.4273758576527309</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1424942757466211</v>
+        <v>0.1481701008381215</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.181105617925282</v>
+        <v>0.1793574506135052</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3648599815083708</v>
+        <v>0.3602608517188271</v>
       </c>
     </row>
     <row r="28">
